--- a/PHM2019_crack_growth_training_data/T4/Description_T4.xlsx
+++ b/PHM2019_crack_growth_training_data/T4/Description_T4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10309"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yongm\Dropbox (ASU)\ASU\Research\papers\PHM 2019\data 03072019\Files for Data Challenging\training\T4\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicolaecadin/Documents/PhD MaD/2019 PHM Conference Data Challenge/PHM2019_crack_growth_training_data/T4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CE316D0-9881-4865-A295-BB30B3D527D1}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D897C290-0DFD-D04D-A4AA-0FE421EF00C1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="20720" windowHeight="13280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -539,21 +539,21 @@
   <dimension ref="A1:O30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="24.1328125" customWidth="1"/>
-    <col min="2" max="2" width="27.1328125" customWidth="1"/>
-    <col min="3" max="3" width="32.46484375" customWidth="1"/>
-    <col min="4" max="4" width="45.1328125" customWidth="1"/>
+    <col min="1" max="1" width="24.1640625" customWidth="1"/>
+    <col min="2" max="2" width="27.1640625" customWidth="1"/>
+    <col min="3" max="3" width="32.5" customWidth="1"/>
+    <col min="4" max="4" width="45.1640625" customWidth="1"/>
     <col min="5" max="5" width="14" customWidth="1"/>
     <col min="6" max="6" width="23" customWidth="1"/>
     <col min="7" max="7" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:15" ht="18" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
         <v>5</v>
       </c>
@@ -562,7 +562,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:15" ht="19" x14ac:dyDescent="0.15">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -573,7 +573,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
@@ -581,13 +581,13 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:15" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.2">
       <c r="A5" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B5" s="5"/>
     </row>
-    <row r="6" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:15" ht="19" x14ac:dyDescent="0.15">
       <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
@@ -604,7 +604,7 @@
       <c r="N6" s="6"/>
       <c r="O6" s="6"/>
     </row>
-    <row r="7" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.15">
       <c r="A7" s="1">
         <v>55900</v>
       </c>
@@ -612,7 +612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.15">
       <c r="A8" s="1">
         <v>60200</v>
       </c>
@@ -620,7 +620,7 @@
         <v>1.61</v>
       </c>
     </row>
-    <row r="9" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.15">
       <c r="A9" s="1">
         <v>65001</v>
       </c>
@@ -628,15 +628,15 @@
         <v>2.17</v>
       </c>
     </row>
-    <row r="10" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.15">
       <c r="A10" s="1">
-        <v>7054</v>
+        <v>67054</v>
       </c>
       <c r="B10" s="1">
         <v>2.74</v>
       </c>
     </row>
-    <row r="11" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.15">
       <c r="A11" s="1">
         <v>70016</v>
       </c>
@@ -644,7 +644,7 @@
         <v>3.13</v>
       </c>
     </row>
-    <row r="12" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.15">
       <c r="A12" s="1">
         <v>71130</v>
       </c>
@@ -652,7 +652,7 @@
         <v>4.0599999999999996</v>
       </c>
     </row>
-    <row r="13" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.15">
       <c r="A13" s="1">
         <v>73210</v>
       </c>
@@ -660,7 +660,7 @@
         <v>4.96</v>
       </c>
     </row>
-    <row r="14" spans="1:15" ht="17.25" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.15">
       <c r="A14" s="1">
         <v>75045</v>
       </c>
@@ -668,17 +668,17 @@
         <v>7.24</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D24" s="4"/>
     </row>
-    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="2:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="2:4" ht="22.05" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:4" ht="30" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="26" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="27" spans="2:4" ht="22" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
     </row>
-    <row r="30" spans="2:4" ht="17.25" x14ac:dyDescent="0.45">
+    <row r="30" spans="2:4" ht="18" x14ac:dyDescent="0.2">
       <c r="B30" s="5"/>
       <c r="C30" s="5"/>
     </row>
@@ -706,7 +706,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -724,7 +724,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
